--- a/output.xlsx
+++ b/output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,7 +374,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>okhai</t>
+          <t>Saket</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -386,28 +386,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ww/kurta/s/bl</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+          <t>Test-black-kurta-xs</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
         <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ww/kurta/xs/yl</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
+          <t>Test-blue-kurta-xs</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ww/krtu-long/xs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
